--- a/SchedulingData/dynamic16/pso/scheduling1_17.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling1_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>82.22</v>
+        <v>64.23999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>25.968</v>
+        <v>27.216</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>63.08</v>
+        <v>64.76000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>26.352</v>
+        <v>26.204</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>65.48</v>
+        <v>50.8</v>
       </c>
       <c r="E4" t="n">
-        <v>25.632</v>
+        <v>25.62</v>
       </c>
     </row>
     <row r="5">
@@ -523,17 +523,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65.48</v>
+        <v>64.23999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>140.48</v>
+        <v>122.64</v>
       </c>
       <c r="E5" t="n">
-        <v>21.252</v>
+        <v>23.016</v>
       </c>
     </row>
     <row r="6">
@@ -542,36 +542,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>68.2</v>
+        <v>64.12</v>
       </c>
       <c r="E6" t="n">
-        <v>25.84</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>64.12</v>
       </c>
       <c r="D7" t="n">
-        <v>37.1</v>
+        <v>136.42</v>
       </c>
       <c r="E7" t="n">
-        <v>27.48</v>
+        <v>22.148</v>
       </c>
     </row>
     <row r="8">
@@ -580,17 +580,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>68.2</v>
+        <v>136.42</v>
       </c>
       <c r="D8" t="n">
-        <v>113.7</v>
+        <v>185.3</v>
       </c>
       <c r="E8" t="n">
-        <v>23.4</v>
+        <v>19.86</v>
       </c>
     </row>
     <row r="9">
@@ -599,17 +599,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>140.48</v>
+        <v>122.64</v>
       </c>
       <c r="D9" t="n">
-        <v>211.1</v>
+        <v>186.06</v>
       </c>
       <c r="E9" t="n">
-        <v>18.26</v>
+        <v>18.804</v>
       </c>
     </row>
     <row r="10">
@@ -618,112 +618,112 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>54.12</v>
+        <v>56.9</v>
       </c>
       <c r="E10" t="n">
-        <v>25.788</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>63.08</v>
+        <v>56.9</v>
       </c>
       <c r="D11" t="n">
-        <v>133.08</v>
+        <v>111.88</v>
       </c>
       <c r="E11" t="n">
-        <v>21.972</v>
+        <v>21.132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>82.22</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>150.68</v>
+        <v>50.3</v>
       </c>
       <c r="E12" t="n">
-        <v>22.752</v>
+        <v>27.16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>54.12</v>
+        <v>186.06</v>
       </c>
       <c r="D13" t="n">
-        <v>88.62</v>
+        <v>260.22</v>
       </c>
       <c r="E13" t="n">
-        <v>23.468</v>
+        <v>15.008</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>150.68</v>
+        <v>50.3</v>
       </c>
       <c r="D14" t="n">
-        <v>215.18</v>
+        <v>107.88</v>
       </c>
       <c r="E14" t="n">
-        <v>19.392</v>
+        <v>23.512</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>133.08</v>
+        <v>111.88</v>
       </c>
       <c r="D15" t="n">
-        <v>175.58</v>
+        <v>158.88</v>
       </c>
       <c r="E15" t="n">
-        <v>18.852</v>
+        <v>18.052</v>
       </c>
     </row>
     <row r="16">
@@ -732,55 +732,55 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>88.62</v>
+        <v>158.88</v>
       </c>
       <c r="D16" t="n">
-        <v>134.78</v>
+        <v>220.18</v>
       </c>
       <c r="E16" t="n">
-        <v>19.492</v>
+        <v>15.532</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>37.1</v>
+        <v>107.88</v>
       </c>
       <c r="D17" t="n">
-        <v>110</v>
+        <v>170.52</v>
       </c>
       <c r="E17" t="n">
-        <v>23.28</v>
+        <v>19.368</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>110</v>
+        <v>220.18</v>
       </c>
       <c r="D18" t="n">
-        <v>178.34</v>
+        <v>275.28</v>
       </c>
       <c r="E18" t="n">
-        <v>18.576</v>
+        <v>12.152</v>
       </c>
     </row>
     <row r="19">
@@ -789,36 +789,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>178.34</v>
+        <v>50.8</v>
       </c>
       <c r="D19" t="n">
-        <v>226.12</v>
+        <v>113.28</v>
       </c>
       <c r="E19" t="n">
-        <v>14.928</v>
+        <v>21.972</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>175.58</v>
+        <v>113.28</v>
       </c>
       <c r="D20" t="n">
-        <v>246.2</v>
+        <v>161.28</v>
       </c>
       <c r="E20" t="n">
-        <v>15.42</v>
+        <v>17.812</v>
       </c>
     </row>
     <row r="21">
@@ -827,17 +827,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>226.12</v>
+        <v>161.28</v>
       </c>
       <c r="D21" t="n">
-        <v>285.48</v>
+        <v>214.7</v>
       </c>
       <c r="E21" t="n">
-        <v>12.112</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="22">
@@ -846,131 +846,131 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>246.2</v>
+        <v>170.52</v>
       </c>
       <c r="D22" t="n">
-        <v>305.2</v>
+        <v>215.86</v>
       </c>
       <c r="E22" t="n">
-        <v>12.12</v>
+        <v>16.464</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>211.1</v>
+        <v>64.76000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>278.84</v>
+        <v>102.84</v>
       </c>
       <c r="E23" t="n">
-        <v>14.116</v>
+        <v>23.036</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>305.2</v>
+        <v>260.22</v>
       </c>
       <c r="D24" t="n">
-        <v>378.22</v>
+        <v>323.46</v>
       </c>
       <c r="E24" t="n">
-        <v>7.908</v>
+        <v>10.304</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>278.84</v>
+        <v>185.3</v>
       </c>
       <c r="D25" t="n">
-        <v>335.5</v>
+        <v>243.24</v>
       </c>
       <c r="E25" t="n">
-        <v>9.58</v>
+        <v>17.156</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>134.78</v>
+        <v>215.86</v>
       </c>
       <c r="D26" t="n">
-        <v>174.58</v>
+        <v>281.68</v>
       </c>
       <c r="E26" t="n">
-        <v>16.652</v>
+        <v>13.472</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>335.5</v>
+        <v>275.28</v>
       </c>
       <c r="D27" t="n">
-        <v>396.32</v>
+        <v>335.38</v>
       </c>
       <c r="E27" t="n">
-        <v>6.588</v>
+        <v>8.772</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>174.58</v>
+        <v>102.84</v>
       </c>
       <c r="D28" t="n">
-        <v>213.86</v>
+        <v>184.3</v>
       </c>
       <c r="E28" t="n">
-        <v>14.364</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="29">
@@ -979,131 +979,131 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>396.32</v>
+        <v>323.46</v>
       </c>
       <c r="D29" t="n">
-        <v>452.62</v>
+        <v>414.78</v>
       </c>
       <c r="E29" t="n">
-        <v>2.088</v>
+        <v>6.272</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>378.22</v>
+        <v>414.78</v>
       </c>
       <c r="D30" t="n">
-        <v>452.28</v>
+        <v>480.98</v>
       </c>
       <c r="E30" t="n">
-        <v>4.112</v>
+        <v>3.232</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>213.86</v>
+        <v>214.7</v>
       </c>
       <c r="D31" t="n">
-        <v>282.26</v>
+        <v>265.1</v>
       </c>
       <c r="E31" t="n">
-        <v>11.124</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>452.62</v>
+        <v>281.68</v>
       </c>
       <c r="D32" t="n">
-        <v>530.34</v>
+        <v>333.98</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>10.352</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>530.34</v>
+        <v>333.98</v>
       </c>
       <c r="D33" t="n">
-        <v>585.34</v>
+        <v>403.24</v>
       </c>
       <c r="E33" t="n">
-        <v>26.7</v>
+        <v>7.536</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>113.7</v>
+        <v>480.98</v>
       </c>
       <c r="D34" t="n">
-        <v>155.5</v>
+        <v>542.5</v>
       </c>
       <c r="E34" t="n">
-        <v>20.36</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>155.5</v>
+        <v>542.5</v>
       </c>
       <c r="D35" t="n">
-        <v>197.9</v>
+        <v>622.84</v>
       </c>
       <c r="E35" t="n">
-        <v>16.76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
@@ -1112,36 +1112,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>197.9</v>
+        <v>243.24</v>
       </c>
       <c r="D36" t="n">
-        <v>236.24</v>
+        <v>285.74</v>
       </c>
       <c r="E36" t="n">
-        <v>14.056</v>
+        <v>14.036</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>215.18</v>
+        <v>403.24</v>
       </c>
       <c r="D37" t="n">
-        <v>287.76</v>
+        <v>487.04</v>
       </c>
       <c r="E37" t="n">
-        <v>16.224</v>
+        <v>4.236</v>
       </c>
     </row>
     <row r="38">
@@ -1150,17 +1150,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>285.48</v>
+        <v>265.1</v>
       </c>
       <c r="D38" t="n">
-        <v>350.18</v>
+        <v>325.52</v>
       </c>
       <c r="E38" t="n">
-        <v>8.731999999999999</v>
+        <v>7.728</v>
       </c>
     </row>
     <row r="39">
@@ -1169,150 +1169,150 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>282.26</v>
+        <v>335.38</v>
       </c>
       <c r="D39" t="n">
-        <v>335.56</v>
+        <v>393.84</v>
       </c>
       <c r="E39" t="n">
-        <v>6.924</v>
+        <v>5.556</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>335.56</v>
+        <v>184.3</v>
       </c>
       <c r="D40" t="n">
-        <v>399.56</v>
+        <v>234.1</v>
       </c>
       <c r="E40" t="n">
-        <v>3.624</v>
+        <v>15.14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>452.28</v>
+        <v>325.52</v>
       </c>
       <c r="D41" t="n">
-        <v>502.42</v>
+        <v>372.52</v>
       </c>
       <c r="E41" t="n">
-        <v>1.208</v>
+        <v>4.648</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>502.42</v>
+        <v>234.1</v>
       </c>
       <c r="D42" t="n">
-        <v>591.5</v>
+        <v>280.42</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>350.18</v>
+        <v>285.74</v>
       </c>
       <c r="D43" t="n">
-        <v>433.94</v>
+        <v>337.94</v>
       </c>
       <c r="E43" t="n">
-        <v>4.936</v>
+        <v>10.436</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>287.76</v>
+        <v>487.04</v>
       </c>
       <c r="D44" t="n">
-        <v>342.74</v>
+        <v>550.34</v>
       </c>
       <c r="E44" t="n">
-        <v>11.856</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>236.24</v>
+        <v>550.34</v>
       </c>
       <c r="D45" t="n">
-        <v>302.9</v>
+        <v>639.85</v>
       </c>
       <c r="E45" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>585.34</v>
+        <v>280.42</v>
       </c>
       <c r="D46" t="n">
-        <v>669.7</v>
+        <v>338.72</v>
       </c>
       <c r="E46" t="n">
-        <v>23.844</v>
+        <v>8.428000000000001</v>
       </c>
     </row>
     <row r="47">
@@ -1321,93 +1321,93 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>433.94</v>
+        <v>372.52</v>
       </c>
       <c r="D47" t="n">
-        <v>474.14</v>
+        <v>441.7</v>
       </c>
       <c r="E47" t="n">
-        <v>2.056</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>399.56</v>
+        <v>441.7</v>
       </c>
       <c r="D48" t="n">
-        <v>448.74</v>
+        <v>519.72</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8159999999999999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>448.74</v>
+        <v>519.72</v>
       </c>
       <c r="D49" t="n">
-        <v>528.8099999999999</v>
+        <v>596.98</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>25.944</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>474.14</v>
+        <v>338.72</v>
       </c>
       <c r="D50" t="n">
-        <v>586.33</v>
+        <v>387.12</v>
       </c>
       <c r="E50" t="n">
-        <v>30</v>
+        <v>4.228</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>586.33</v>
+        <v>393.84</v>
       </c>
       <c r="D51" t="n">
-        <v>640.4299999999999</v>
+        <v>444.9</v>
       </c>
       <c r="E51" t="n">
-        <v>26.76</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="52">
@@ -1416,36 +1416,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>528.8099999999999</v>
+        <v>444.9</v>
       </c>
       <c r="D52" t="n">
-        <v>592.67</v>
+        <v>518.64</v>
       </c>
       <c r="E52" t="n">
-        <v>26.784</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>302.9</v>
+        <v>622.84</v>
       </c>
       <c r="D53" t="n">
-        <v>363.64</v>
+        <v>667.84</v>
       </c>
       <c r="E53" t="n">
-        <v>7.536</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="54">
@@ -1454,55 +1454,55 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>363.64</v>
+        <v>337.94</v>
       </c>
       <c r="D54" t="n">
-        <v>416.14</v>
+        <v>409.84</v>
       </c>
       <c r="E54" t="n">
-        <v>4.416</v>
+        <v>7.316</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>669.7</v>
+        <v>639.85</v>
       </c>
       <c r="D55" t="n">
-        <v>703.9400000000001</v>
+        <v>705.23</v>
       </c>
       <c r="E55" t="n">
-        <v>21.06</v>
+        <v>25.632</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>640.4299999999999</v>
+        <v>667.84</v>
       </c>
       <c r="D56" t="n">
-        <v>687.01</v>
+        <v>707.24</v>
       </c>
       <c r="E56" t="n">
-        <v>23.232</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="57">
@@ -1511,112 +1511,112 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>416.14</v>
+        <v>409.84</v>
       </c>
       <c r="D57" t="n">
-        <v>458.24</v>
+        <v>499.34</v>
       </c>
       <c r="E57" t="n">
-        <v>1.336</v>
+        <v>4.436</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>458.24</v>
+        <v>387.12</v>
       </c>
       <c r="D58" t="n">
-        <v>561.97</v>
+        <v>448.16</v>
       </c>
       <c r="E58" t="n">
-        <v>30</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>592.67</v>
+        <v>448.16</v>
       </c>
       <c r="D59" t="n">
-        <v>665.27</v>
+        <v>533.47</v>
       </c>
       <c r="E59" t="n">
-        <v>23.144</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>687.01</v>
+        <v>533.47</v>
       </c>
       <c r="D60" t="n">
-        <v>759.01</v>
+        <v>603.4299999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>20.152</v>
+        <v>27.144</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>342.74</v>
+        <v>518.64</v>
       </c>
       <c r="D61" t="n">
-        <v>391.24</v>
+        <v>582.5</v>
       </c>
       <c r="E61" t="n">
-        <v>8.135999999999999</v>
+        <v>26.784</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>703.9400000000001</v>
+        <v>582.5</v>
       </c>
       <c r="D62" t="n">
-        <v>760.5599999999999</v>
+        <v>641.3</v>
       </c>
       <c r="E62" t="n">
-        <v>18.508</v>
+        <v>23.544</v>
       </c>
     </row>
     <row r="63">
@@ -1625,17 +1625,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561.97</v>
+        <v>499.34</v>
       </c>
       <c r="D63" t="n">
-        <v>612.77</v>
+        <v>579.04</v>
       </c>
       <c r="E63" t="n">
-        <v>26.62</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="64">
@@ -1644,17 +1644,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>612.77</v>
+        <v>579.04</v>
       </c>
       <c r="D64" t="n">
-        <v>665.37</v>
+        <v>655.73</v>
       </c>
       <c r="E64" t="n">
-        <v>23.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
@@ -1663,36 +1663,55 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>391.24</v>
+        <v>603.4299999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>454.66</v>
+        <v>634.47</v>
       </c>
       <c r="E65" t="n">
-        <v>3.924</v>
+        <v>24.68</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>591.5</v>
+        <v>641.3</v>
       </c>
       <c r="D66" t="n">
-        <v>658.14</v>
+        <v>690.7</v>
       </c>
       <c r="E66" t="n">
-        <v>26.516</v>
+        <v>21.224</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>3</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>pond14</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>596.98</v>
+      </c>
+      <c r="D67" t="n">
+        <v>643.5599999999999</v>
+      </c>
+      <c r="E67" t="n">
+        <v>22.416</v>
       </c>
     </row>
   </sheetData>
